--- a/teaching/traditional_assets/database/data/australia/australia_semiconductor_equip.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_semiconductor_equip.xlsx
@@ -591,25 +591,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.025</v>
+        <v>0.147</v>
+      </c>
+      <c r="E2">
+        <v>-0.0285</v>
       </c>
       <c r="G2">
-        <v>12.51677852348993</v>
+        <v>-7.699779249448123</v>
       </c>
       <c r="H2">
-        <v>-13.22147651006711</v>
+        <v>-7.699779249448123</v>
       </c>
       <c r="I2">
-        <v>-13.6575572135793</v>
+        <v>-9.015452538631346</v>
       </c>
       <c r="J2">
-        <v>-13.6575572135793</v>
+        <v>-9.015452538631346</v>
       </c>
       <c r="K2">
-        <v>-10.139</v>
+        <v>-4.02</v>
       </c>
       <c r="L2">
-        <v>-34.02348993288591</v>
+        <v>-8.874172185430462</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,70 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.65</v>
+        <v>4.521</v>
       </c>
       <c r="V2">
-        <v>0.1553002471444793</v>
+        <v>0.07721605465414175</v>
       </c>
       <c r="W2">
-        <v>-0.2745621432278152</v>
+        <v>-0.2307757072294567</v>
       </c>
       <c r="X2">
-        <v>0.1145906834567371</v>
+        <v>0.09169437868049965</v>
       </c>
       <c r="Y2">
-        <v>-0.3891528266845523</v>
+        <v>-0.3224700859099563</v>
       </c>
       <c r="Z2">
-        <v>0.0274660447034789</v>
+        <v>0.07389885807504078</v>
       </c>
       <c r="AA2">
-        <v>-0.2592891343957101</v>
+        <v>-0.5335391369966385</v>
       </c>
       <c r="AB2">
-        <v>0.1137430957664339</v>
+        <v>0.09086785821437925</v>
       </c>
       <c r="AC2">
-        <v>-0.373032230162144</v>
+        <v>-0.6244069952110177</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE2">
-        <v>0.6097602482331473</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.6097602482331473</v>
+        <v>1.19</v>
       </c>
       <c r="AG2">
-        <v>-4.040239751766853</v>
+        <v>-3.331</v>
       </c>
       <c r="AH2">
-        <v>0.01995826895991731</v>
+        <v>0.01991965182457315</v>
       </c>
       <c r="AI2">
-        <v>0.05353582823025069</v>
+        <v>0.08173076923076922</v>
       </c>
       <c r="AJ2">
-        <v>-0.1559832116831694</v>
+        <v>-0.06032343939586012</v>
       </c>
       <c r="AK2">
-        <v>-0.5994634234691087</v>
+        <v>-0.3318059567686024</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="AM2">
-        <v>-0.172</v>
+        <v>0.037</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-0.3411697247706422</v>
+      </c>
+      <c r="AO2">
+        <v>-65.87096774193547</v>
       </c>
       <c r="AP2">
-        <v>1.07682296155833</v>
+        <v>0.9549885321100917</v>
       </c>
       <c r="AQ2">
-        <v>24.04651162790698</v>
+        <v>-110.3783783783784</v>
       </c>
     </row>
     <row r="3">
@@ -715,8 +721,11 @@
           <t>Semiconductor Equip</t>
         </is>
       </c>
+      <c r="E3">
+        <v>-0.0285</v>
+      </c>
       <c r="K3">
-        <v>-0.039</v>
+        <v>0.12</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,7 +734,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -734,37 +743,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.36</v>
+        <v>0.771</v>
       </c>
       <c r="V3">
-        <v>0.4275534441805225</v>
+        <v>0.09233532934131737</v>
       </c>
       <c r="W3">
-        <v>-0.01189024390243902</v>
+        <v>0.04580152671755724</v>
       </c>
       <c r="X3">
-        <v>0.113896192363377</v>
+        <v>0.09101639306868477</v>
       </c>
       <c r="Y3">
-        <v>-0.1257864362658161</v>
+        <v>-0.04521486635112752</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.01619718309859155</v>
+        <v>-0.02831858407079646</v>
       </c>
       <c r="AB3">
-        <v>0.113896192363377</v>
+        <v>0.09101639306868477</v>
       </c>
       <c r="AC3">
-        <v>-0.1300933754619686</v>
+        <v>-0.1193349771394812</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -776,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.36</v>
+        <v>-0.771</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -785,19 +794,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.7468879668049793</v>
+        <v>-0.1017284602190263</v>
       </c>
       <c r="AK3">
-        <v>-0.1592920353982301</v>
+        <v>-0.1908888338697698</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.007</v>
+        <v>-0.004</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
+      </c>
+      <c r="AP3">
+        <v>16.0625</v>
       </c>
       <c r="AQ3">
-        <v>6.571428571428571</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +832,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.025</v>
+        <v>0.147</v>
       </c>
       <c r="G4">
-        <v>12.51677852348993</v>
+        <v>-7.593818984547461</v>
       </c>
       <c r="H4">
-        <v>-13.22147651006711</v>
+        <v>-7.593818984547461</v>
       </c>
       <c r="I4">
-        <v>-13.50319479747191</v>
+        <v>-8.874172185430462</v>
       </c>
       <c r="J4">
-        <v>-13.50319479747191</v>
+        <v>-8.874172185430462</v>
       </c>
       <c r="K4">
-        <v>-10.1</v>
+        <v>-4.14</v>
       </c>
       <c r="L4">
-        <v>-33.89261744966443</v>
+        <v>-9.139072847682119</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -859,70 +874,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4.29</v>
+        <v>3.75</v>
       </c>
       <c r="V4">
-        <v>0.1474226804123711</v>
+        <v>0.0747011952191235</v>
       </c>
       <c r="W4">
-        <v>-0.5372340425531914</v>
+        <v>-0.5073529411764706</v>
       </c>
       <c r="X4">
-        <v>0.1152851745500973</v>
+        <v>0.09237236429231452</v>
       </c>
       <c r="Y4">
-        <v>-0.6525192171032886</v>
+        <v>-0.5997253054687851</v>
       </c>
       <c r="Z4">
-        <v>0.03720460922232161</v>
+        <v>0.1170542635658915</v>
       </c>
       <c r="AA4">
-        <v>-0.5023810856928287</v>
+        <v>-1.03875968992248</v>
       </c>
       <c r="AB4">
-        <v>0.1135899991694907</v>
+        <v>0.09071932336007373</v>
       </c>
       <c r="AC4">
-        <v>-0.6159710848623194</v>
+        <v>-1.129479013282554</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE4">
-        <v>0.6097602482331473</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.6097602482331473</v>
+        <v>1.19</v>
       </c>
       <c r="AG4">
-        <v>-3.680239751766853</v>
+        <v>-2.56</v>
       </c>
       <c r="AH4">
-        <v>0.02052390336167085</v>
+        <v>0.0231562560809496</v>
       </c>
       <c r="AI4">
-        <v>0.06952986523844781</v>
+        <v>0.122051282051282</v>
       </c>
       <c r="AJ4">
-        <v>-0.1447786964089346</v>
+        <v>-0.05373635600335852</v>
       </c>
       <c r="AK4">
-        <v>-0.8215260522520972</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="AM4">
-        <v>-0.165</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>-0.3459302325581395</v>
+      </c>
+      <c r="AO4">
+        <v>-64.83870967741935</v>
       </c>
       <c r="AP4">
-        <v>0.9808741342662187</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="AQ4">
-        <v>24.78787878787879</v>
+        <v>-98.04878048780488</v>
       </c>
     </row>
   </sheetData>
